--- a/Resultats/Performance.xlsx
+++ b/Resultats/Performance.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierre-luctheriault/PycharmProjects/Projet3/Resultats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{295FE778-FACA-4E45-B0A5-96948E550D5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D17076-92BE-E44B-940E-6F2F958DDBEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{06B29052-E754-C94E-80E9-DBD9D1F93434}"/>
   </bookViews>
   <sheets>
     <sheet name="N_x" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,10 +88,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -409,26 +409,26 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
     <col min="2" max="2" width="36.83203125" customWidth="1"/>
-    <col min="3" max="3" width="28.83203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.5" style="2" customWidth="1"/>
-    <col min="5" max="5" width="25.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -437,13 +437,13 @@
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
     </row>
@@ -454,17 +454,17 @@
       <c r="B3">
         <v>14.6</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" s="1">
         <v>2.6</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>48.1</v>
       </c>
-      <c r="E3" s="2">
+      <c r="E3" s="1">
         <f>100-(C3+D3)</f>
         <v>49.3</v>
       </c>
-      <c r="F3" s="2"/>
+      <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
@@ -473,14 +473,14 @@
       <c r="B4">
         <v>18.600000000000001</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" s="1">
         <v>3.8</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <f>3.1+57.2</f>
         <v>60.300000000000004</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4" s="1">
         <f t="shared" ref="E4:E12" si="0">100-(C4+D4)</f>
         <v>35.899999999999991</v>
       </c>
@@ -492,14 +492,14 @@
       <c r="B5">
         <v>25.4</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <f>2.9+65.4</f>
         <v>68.300000000000011</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <f t="shared" si="0"/>
         <v>27.599999999999994</v>
       </c>
@@ -511,14 +511,14 @@
       <c r="B6">
         <v>33.5</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="1">
         <v>3.7</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <f>2.6+73.2</f>
         <v>75.8</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <f t="shared" si="0"/>
         <v>20.5</v>
       </c>
@@ -530,13 +530,13 @@
       <c r="B7">
         <v>45.6</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" s="1">
         <v>3.6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>81.5</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <f t="shared" si="0"/>
         <v>14.900000000000006</v>
       </c>
@@ -548,14 +548,14 @@
       <c r="B8">
         <v>87.21</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <f>87.3+1.8</f>
         <v>89.1</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <f t="shared" si="0"/>
         <v>7.9000000000000057</v>
       </c>
@@ -567,14 +567,14 @@
       <c r="B9">
         <v>140.143</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="1">
         <v>2.5</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <f>90.8+1.5</f>
         <v>92.3</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <f t="shared" si="0"/>
         <v>5.2000000000000028</v>
       </c>
@@ -586,13 +586,13 @@
       <c r="B10">
         <v>229.9</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" s="1">
         <v>2.1</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>94.5</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <f t="shared" si="0"/>
         <v>3.4000000000000057</v>
       </c>
@@ -604,13 +604,13 @@
       <c r="B11">
         <v>701.7</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="1">
         <v>1.1000000000000001</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>96.7</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <f t="shared" si="0"/>
         <v>2.2000000000000028</v>
       </c>
@@ -620,17 +620,17 @@
         <v>200</v>
       </c>
       <c r="B12">
-        <v>1161</v>
-      </c>
-      <c r="C12" s="2">
-        <v>0.6</v>
-      </c>
-      <c r="D12" s="2">
+        <v>1101</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.9</v>
+      </c>
+      <c r="D12" s="1">
         <v>98.2</v>
       </c>
-      <c r="E12" s="2">
-        <f t="shared" si="0"/>
-        <v>1.2000000000000028</v>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>0.89999999999999147</v>
       </c>
     </row>
   </sheetData>

--- a/Resultats/Performance.xlsx
+++ b/Resultats/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierre-luctheriault/PycharmProjects/Projet3/Resultats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D17076-92BE-E44B-940E-6F2F958DDBEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7713D73D-535A-2349-9B17-D053C5F68EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{06B29052-E754-C94E-80E9-DBD9D1F93434}"/>
   </bookViews>

--- a/Resultats/Performance.xlsx
+++ b/Resultats/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierre-luctheriault/PycharmProjects/Projet3/Resultats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7713D73D-535A-2349-9B17-D053C5F68EEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81320F23-04D4-1D4F-AFF7-8FEF028FCB36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{06B29052-E754-C94E-80E9-DBD9D1F93434}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Temps en fonctions de Nx pour 10 fréquences</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Temps d'affichage(%)</t>
+  </si>
+  <si>
+    <t>Peak_RAM</t>
   </si>
 </sst>
 </file>
@@ -86,12 +89,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -406,15 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DD67AF-5641-A24E-AB40-DCC4FB650B4E}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="36.83203125" customWidth="1"/>
     <col min="3" max="3" width="28.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21.5" style="1" customWidth="1"/>
@@ -431,7 +435,7 @@
       <c r="E1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
@@ -446,191 +450,315 @@
       <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>60</v>
+      <c r="A3" s="3">
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>14.6</v>
+        <v>2.29</v>
       </c>
       <c r="C3" s="1">
-        <v>2.6</v>
+        <f>7</f>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>48.1</v>
+        <f>35</f>
+        <v>35</v>
       </c>
       <c r="E3" s="1">
-        <f>100-(C3+D3)</f>
-        <v>49.3</v>
-      </c>
-      <c r="F3" s="1"/>
+        <f t="shared" ref="E3:E8" si="0">100-(C3+D3)</f>
+        <v>58</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.22500000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>70</v>
+      <c r="A4" s="3">
+        <v>200</v>
       </c>
       <c r="B4">
-        <v>18.600000000000001</v>
+        <v>5.3</v>
       </c>
       <c r="C4" s="1">
-        <v>3.8</v>
+        <f>17.2</f>
+        <v>17.2</v>
       </c>
       <c r="D4" s="1">
-        <f>3.1+57.2</f>
-        <v>60.300000000000004</v>
+        <f>44.9+8.7</f>
+        <v>53.599999999999994</v>
       </c>
       <c r="E4" s="1">
-        <f t="shared" ref="E4:E12" si="0">100-(C4+D4)</f>
-        <v>35.899999999999991</v>
+        <f t="shared" si="0"/>
+        <v>29.200000000000003</v>
+      </c>
+      <c r="F4">
+        <v>0.31</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>80</v>
+      <c r="A5" s="3">
+        <v>300</v>
       </c>
       <c r="B5">
-        <v>25.4</v>
+        <v>10</v>
       </c>
       <c r="C5" s="1">
-        <v>4.0999999999999996</v>
+        <v>25.3</v>
       </c>
       <c r="D5" s="1">
-        <f>2.9+65.4</f>
-        <v>68.300000000000011</v>
+        <v>59.2</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" si="0"/>
-        <v>27.599999999999994</v>
+        <v>15.5</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.51300000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>90</v>
+      <c r="A6" s="3">
+        <v>400</v>
       </c>
       <c r="B6">
-        <v>33.5</v>
+        <v>18</v>
       </c>
       <c r="C6" s="1">
-        <v>3.7</v>
+        <v>32.9</v>
       </c>
       <c r="D6" s="1">
-        <f>2.6+73.2</f>
-        <v>75.8</v>
+        <f>9.5+48.2</f>
+        <v>57.7</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" si="0"/>
-        <v>20.5</v>
+        <v>9.4000000000000057</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.80700000000000005</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>100</v>
+      <c r="A7" s="3">
+        <v>500</v>
       </c>
       <c r="B7">
-        <v>45.6</v>
+        <v>28</v>
       </c>
       <c r="C7" s="1">
-        <v>3.6</v>
+        <v>35.5</v>
       </c>
       <c r="D7" s="1">
-        <v>81.5</v>
+        <f>48+9.6</f>
+        <v>57.6</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" si="0"/>
-        <v>14.900000000000006</v>
+        <v>6.9000000000000057</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>120</v>
+      <c r="A8" s="3">
+        <v>600</v>
       </c>
       <c r="B8">
-        <v>87.21</v>
+        <v>43</v>
       </c>
       <c r="C8" s="1">
-        <v>3</v>
+        <f>40.3</f>
+        <v>40.299999999999997</v>
       </c>
       <c r="D8" s="1">
-        <f>87.3+1.8</f>
-        <v>89.1</v>
+        <f>8.9+45.7</f>
+        <v>54.6</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>7.9000000000000057</v>
+        <v>5.0999999999999943</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1.9</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>140</v>
+      <c r="A9" s="3">
+        <v>700</v>
       </c>
       <c r="B9">
-        <v>140.143</v>
+        <v>68.5</v>
       </c>
       <c r="C9" s="1">
-        <v>2.5</v>
+        <f>48.8</f>
+        <v>48.8</v>
       </c>
       <c r="D9" s="1">
-        <f>90.8+1.5</f>
-        <v>92.3</v>
+        <f>7.7+39</f>
+        <v>46.7</v>
       </c>
       <c r="E9" s="1">
-        <f t="shared" si="0"/>
-        <v>5.2000000000000028</v>
+        <f>100-(C9+D9)</f>
+        <v>4.5</v>
+      </c>
+      <c r="F9">
+        <v>2.8</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>160</v>
+      <c r="A10" s="3">
+        <v>800</v>
       </c>
       <c r="B10">
-        <v>229.9</v>
+        <v>89</v>
       </c>
       <c r="C10" s="1">
-        <v>2.1</v>
+        <v>48.9</v>
       </c>
       <c r="D10" s="1">
-        <v>94.5</v>
+        <f>8.7+39.1</f>
+        <v>47.8</v>
       </c>
       <c r="E10" s="1">
-        <f t="shared" si="0"/>
-        <v>3.4000000000000057</v>
+        <f t="shared" ref="E10:E16" si="1">100-(C10+D10)</f>
+        <v>3.3000000000000114</v>
+      </c>
+      <c r="F10" s="1">
+        <v>3.6</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>180</v>
+      <c r="A11" s="3">
+        <v>900</v>
       </c>
       <c r="B11">
-        <v>701.7</v>
+        <v>117</v>
       </c>
       <c r="C11" s="1">
-        <v>1.1000000000000001</v>
+        <v>51.2</v>
       </c>
       <c r="D11" s="1">
-        <v>96.7</v>
+        <f>37.8+8</f>
+        <v>45.8</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>175</v>
+      </c>
+      <c r="C12" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="D12" s="1">
+        <f>31.5+6.7</f>
+        <v>38.200000000000003</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2999999999999972</v>
+      </c>
+      <c r="F12" s="1">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>1250</v>
+      </c>
+      <c r="B13">
+        <v>264</v>
+      </c>
+      <c r="C13" s="1">
+        <v>58.8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>39</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="1"/>
         <v>2.2000000000000028</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>200</v>
-      </c>
-      <c r="B12">
-        <v>1101</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0.9</v>
-      </c>
-      <c r="D12" s="1">
-        <v>98.2</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="0"/>
-        <v>0.89999999999999147</v>
+      <c r="F13" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>1500</v>
+      </c>
+      <c r="B14">
+        <v>436</v>
+      </c>
+      <c r="C14" s="1">
+        <v>64.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7000000000000028</v>
+      </c>
+      <c r="F14">
+        <v>12.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>1750</v>
+      </c>
+      <c r="B15">
+        <v>725</v>
+      </c>
+      <c r="C15" s="1">
+        <v>70.7</v>
+      </c>
+      <c r="D15" s="1">
+        <v>28</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2999999999999972</v>
+      </c>
+      <c r="F15" s="1">
+        <v>24.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B16">
+        <v>878</v>
+      </c>
+      <c r="C16" s="1">
+        <v>69.2</v>
+      </c>
+      <c r="D16" s="1">
+        <v>29.3</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+      <c r="F16" s="1">
+        <v>24.79</v>
       </c>
     </row>
   </sheetData>
@@ -638,5 +766,6 @@
     <mergeCell ref="A1:E1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Resultats/Performance.xlsx
+++ b/Resultats/Performance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierre-luctheriault/PycharmProjects/Projet3/Resultats/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81320F23-04D4-1D4F-AFF7-8FEF028FCB36}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8810EA26-006E-DA47-8E62-75360350DF59}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{06B29052-E754-C94E-80E9-DBD9D1F93434}"/>
   </bookViews>
